--- a/04_memo/map14.xlsx
+++ b/04_memo/map14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A8FCD-D24D-4BCB-827F-FDDF145050F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF3EEB-48BA-415E-96C1-F13A78FC7789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -10240,7 +10240,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
